--- a/Aehnlichkeit/experiment_summary.xlsx
+++ b/Aehnlichkeit/experiment_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>Treatment</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,13 +478,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01350780920219502</v>
+        <v>0.1308394451530612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>Treatment</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,13 +499,13 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3172706370024936</v>
+        <v>0.1170380261479592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>Treatment</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -520,13 +520,13 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1595479712559533</v>
+        <v>0.5554249043367347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>Treatment</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -541,13 +541,13 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08844092130415603</v>
+        <v>0.3006467235331632</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>Treatment</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -562,7 +562,171 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3807814722015304</v>
+        <v>0.156673509247449</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Treatment</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.1957210618622449</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Treatment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.01788703762755102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Treatment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.05201191804846939</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Treatment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.003711933992346939</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Treatment</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1576201769770408</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Maxi_vollständig</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2663723692602041</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Maxi_vollständig</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3025849011479592</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Maxi_vollständig</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1746352838010204</v>
       </c>
     </row>
   </sheetData>
